--- a/董一鸣的工作安排/阶段一的工作安排.xlsx
+++ b/董一鸣的工作安排/阶段一的工作安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="准备阶段" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>安卓工作安排</t>
   </si>
@@ -44,6 +44,9 @@
 </t>
   </si>
   <si>
+    <t>未完成</t>
+  </si>
+  <si>
     <t>星期二</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
   <si>
     <t>星期天</t>
   </si>
+  <si>
+    <t>第一篇：Android上不应该使用枚举，占内存，应该使用@XXXDef注解来替代</t>
+  </si>
 </sst>
 </file>
 
@@ -69,8 +75,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -97,6 +103,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -106,22 +120,113 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,107 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,25 +262,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,145 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +540,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,17 +570,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,55 +633,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,137 +657,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,7 +812,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,10 +1187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1290,13 +1299,13 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2"/>
@@ -1309,11 +1318,11 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
@@ -1332,18 +1341,20 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1351,18 +1362,18 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1370,18 +1381,18 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1389,18 +1400,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1408,18 +1419,18 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1427,18 +1438,18 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1446,14 +1457,129 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="8">
+        <v>43171</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="8">
+        <v>43172</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="5:16">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="5:16">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="5:16">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="5:16">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="5:16">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C14"/>
@@ -1462,6 +1588,7 @@
     <mergeCell ref="A1:O5"/>
     <mergeCell ref="K6:O7"/>
     <mergeCell ref="K8:O14"/>
+    <mergeCell ref="E16:P21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
